--- a/src/main/resources/excel/Reclamation.xlsx
+++ b/src/main/resources/excel/Reclamation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
   <si>
     <t/>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>2024-03-04 08:39:59.0</t>
+  </si>
+  <si>
+    <t>salma</t>
+  </si>
+  <si>
+    <t>yacoub</t>
+  </si>
+  <si>
+    <t>trah ****</t>
+  </si>
+  <si>
+    <t>2024-03-04 12:24:17.0</t>
   </si>
 </sst>
 </file>
@@ -151,7 +163,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -257,6 +269,26 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/excel/Reclamation.xlsx
+++ b/src/main/resources/excel/Reclamation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -74,16 +74,19 @@
     <t>2024-03-04 08:39:59.0</t>
   </si>
   <si>
-    <t>salma</t>
-  </si>
-  <si>
-    <t>yacoub</t>
-  </si>
-  <si>
-    <t>trah ****</t>
-  </si>
-  <si>
-    <t>2024-03-04 12:24:17.0</t>
+    <t>spool</t>
+  </si>
+  <si>
+    <t>sayabna</t>
+  </si>
+  <si>
+    <t>teebna</t>
+  </si>
+  <si>
+    <t>2024-03-05 11:19:51.0</t>
+  </si>
+  <si>
+    <t>produits</t>
   </si>
 </sst>
 </file>
@@ -283,7 +286,7 @@
         <v>23</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>12</v>

--- a/src/main/resources/excel/Reclamation.xlsx
+++ b/src/main/resources/excel/Reclamation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="42">
   <si>
     <t/>
   </si>
@@ -41,28 +41,76 @@
     <t>oueslati</t>
   </si>
   <si>
-    <t>salut</t>
-  </si>
-  <si>
-    <t>2024-03-03 23:23:02.0</t>
+    <t>****</t>
+  </si>
+  <si>
+    <t>2024-05-05 15:55:15.0</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
+    <t>traitee</t>
+  </si>
+  <si>
+    <t>spool</t>
+  </si>
+  <si>
+    <t>sayabna</t>
+  </si>
+  <si>
+    <t>teebna</t>
+  </si>
+  <si>
+    <t>2024-05-05 15:55:02.0</t>
+  </si>
+  <si>
+    <t>produits</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>2024-05-05 15:55:37.0</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>web ****</t>
+  </si>
+  <si>
+    <t>2024-05-12 11:25:09.0</t>
+  </si>
+  <si>
     <t>non traitee</t>
   </si>
   <si>
-    <t>****</t>
-  </si>
-  <si>
-    <t>2024-03-03 23:24:35.0</t>
-  </si>
-  <si>
-    <t>traitee</t>
-  </si>
-  <si>
-    <t>2024-03-03 23:25:39.0</t>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>2024-05-05 15:56:19.0</t>
+  </si>
+  <si>
+    <t>tt</t>
+  </si>
+  <si>
+    <t>2024-05-05 15:56:25.0</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>2024-05-05 15:56:35.0</t>
+  </si>
+  <si>
+    <t>uu</t>
+  </si>
+  <si>
+    <t>2024-05-05 23:17:45.0</t>
+  </si>
+  <si>
+    <t>2024-05-12 11:26:49.0</t>
   </si>
   <si>
     <t>rania</t>
@@ -71,22 +119,25 @@
     <t>guelmami</t>
   </si>
   <si>
-    <t>2024-03-04 08:39:59.0</t>
-  </si>
-  <si>
-    <t>spool</t>
-  </si>
-  <si>
-    <t>sayabna</t>
-  </si>
-  <si>
-    <t>teebna</t>
-  </si>
-  <si>
-    <t>2024-03-05 11:19:51.0</t>
-  </si>
-  <si>
-    <t>produits</t>
+    <t>****** blabla</t>
+  </si>
+  <si>
+    <t>2024-05-05 23:17:27.0</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>pidev</t>
+  </si>
+  <si>
+    <t>2024-05-06 09:40:27.0</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>2024-05-06 00:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -166,7 +217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -214,82 +265,222 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>24</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/Reclamation.xlsx
+++ b/src/main/resources/excel/Reclamation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="47">
   <si>
     <t/>
   </si>
@@ -92,24 +92,6 @@
     <t>2024-05-05 15:56:19.0</t>
   </si>
   <si>
-    <t>tt</t>
-  </si>
-  <si>
-    <t>2024-05-05 15:56:25.0</t>
-  </si>
-  <si>
-    <t>yy</t>
-  </si>
-  <si>
-    <t>2024-05-05 15:56:35.0</t>
-  </si>
-  <si>
-    <t>uu</t>
-  </si>
-  <si>
-    <t>2024-05-05 23:17:45.0</t>
-  </si>
-  <si>
     <t>2024-05-12 11:26:49.0</t>
   </si>
   <si>
@@ -131,13 +113,46 @@
     <t>pidev</t>
   </si>
   <si>
-    <t>2024-05-06 09:40:27.0</t>
-  </si>
-  <si>
     <t>******</t>
   </si>
   <si>
     <t>2024-05-06 00:00:00.0</t>
+  </si>
+  <si>
+    <t>lol</t>
+  </si>
+  <si>
+    <t>2024-05-13 16:52:24.0</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>2024-05-16 14:14:48.0</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>javaweb</t>
+  </si>
+  <si>
+    <t>gd</t>
+  </si>
+  <si>
+    <t>2024-05-16 14:15:23.0</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>bbbb</t>
+  </si>
+  <si>
+    <t>bbbbbbb</t>
+  </si>
+  <si>
+    <t>2024-05-16 14:16:41.0</t>
   </si>
 </sst>
 </file>
@@ -345,39 +360,39 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>27</v>
-      </c>
       <c r="E7" t="s" s="0">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>28</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>12</v>
@@ -385,19 +400,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>23</v>
@@ -405,19 +420,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s" s="0">
         <v>23</v>
@@ -425,59 +440,59 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>37</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>11</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s" s="0">
         <v>23</v>
